--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>810141.4644359372</v>
+        <v>890596.2807966241</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680573.5606250049</v>
+        <v>680573.5606250048</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15081736.51669623</v>
+        <v>15081736.51669622</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>62.4162677022923</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y8" t="n">
-        <v>82.46119763909351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>65.1306020652372</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1296,64 +1296,64 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G11" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>172.5580487597129</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>175.7569470849741</v>
       </c>
       <c r="V12" t="n">
-        <v>176.7479403895047</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>28.69723130130875</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>7.884372849250084</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1606,70 +1606,70 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>251.3343897888113</v>
+      </c>
+      <c r="V14" t="n">
+        <v>268.0607811825788</v>
+      </c>
+      <c r="W14" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>155.8903435161421</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>141.0252816852793</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>222.4795457699687</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>132.1099853733425</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>199.8611009721718</v>
+        <v>182.6211079922058</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>7.884372849250095</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>226.9987351008518</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U17" t="n">
-        <v>91.8675030837757</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1931,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.30685665238898</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>86.52637399313858</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>28.69723130130875</v>
       </c>
       <c r="G19" t="n">
-        <v>29.71014592494668</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="H20" t="n">
-        <v>243.2386572690346</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>45.58123541261014</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>175.7569470849743</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>227.5908292737221</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2323,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>283.4391579967413</v>
+        <v>386.4626181756199</v>
       </c>
       <c r="G23" t="n">
         <v>414.3670737191223</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>91.09422701486459</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T23" t="n">
         <v>218.9999812970856</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>93.12981880529391</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>158.7777959856046</v>
       </c>
       <c r="T24" t="n">
         <v>198.1468615877626</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>21.02303004802086</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>226.1522977307186</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>226.8147786768244</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>191.6808106224711</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>91.09422701486459</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>150.2044289179534</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,16 +2636,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>36.70951093865356</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>136.8428928972591</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2693,10 +2693,10 @@
         <v>225.9084462740043</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>211.664531431132</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>12.49659271983034</v>
+        <v>166.4440780709521</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,16 +2797,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.3670737191223</v>
+        <v>405.3170540365577</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>153.3418812309332</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>26.08379180237844</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2882,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.8428928972591</v>
+        <v>69.30248623963166</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>68.31917910601592</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>158.4955995708086</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>226.1522977307185</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>55.40838506078386</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>250.7330487807704</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>251.2707998041555</v>
       </c>
       <c r="V32" t="n">
-        <v>154.0462542324022</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3119,16 +3119,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3167,16 +3167,16 @@
         <v>225.9084462740043</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>143.447883553655</v>
+        <v>166.4374008943185</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.571272790944</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>216.7022572194656</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>89.83085654150835</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>105.5638234346618</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>282.3662808364126</v>
+        <v>63.58961366896591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>91.09422701486459</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3350,10 +3350,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>141.4627134431543</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>198.1468615877626</v>
       </c>
       <c r="U36" t="n">
-        <v>219.9260941525198</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>93.43606540026221</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>142.8287537878153</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>216.7022572194656</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>137.1047822907029</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.19781674373233</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>187.6986308346051</v>
       </c>
       <c r="T38" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2707998041555</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>114.1516180949164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3593,16 +3593,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>2.67033869867309</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H39" t="n">
-        <v>99.30513414374246</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T39" t="n">
         <v>198.1468615877626</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>166.4440780709521</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>142.8287537878153</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>164.7172745967965</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.3670737191223</v>
+        <v>53.12775777646473</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>91.09422701486459</v>
       </c>
       <c r="S41" t="n">
-        <v>135.9662300726646</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3827,19 +3827,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>89.97534213068165</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>136.8428928972591</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S42" t="n">
         <v>162.3842949358346</v>
       </c>
       <c r="T42" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9084462740043</v>
+        <v>41.48225580638544</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>47.42544083656864</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>158.4218578960072</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>75.96056515944107</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>8.41093020990839</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>53.04690325056166</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4058,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>125.5971307746861</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4109,10 +4109,10 @@
         <v>162.3842949358346</v>
       </c>
       <c r="T45" t="n">
-        <v>112.9333242319941</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4121,10 +4121,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>68.69354639713352</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.571272790944</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>216.7022572194656</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>200.8294330837151</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4418,10 +4418,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H6" t="n">
         <v>19.28114311021272</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>227.1326433157456</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="7">
@@ -4752,19 +4752,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C8" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>358.0940480307835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>114.6452713866835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>114.6452713866835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>114.6452713866835</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>234.810827406191</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V9" t="n">
-        <v>500.6814290152826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W9" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X9" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.0384945329112</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="C11" t="n">
-        <v>301.0384945329112</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="D11" t="n">
-        <v>301.0384945329112</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="E11" t="n">
-        <v>301.0384945329112</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="F11" t="n">
-        <v>301.0384945329112</v>
+        <v>475.3395538861565</v>
       </c>
       <c r="G11" t="n">
-        <v>22.09252109618844</v>
+        <v>196.3935804494338</v>
       </c>
       <c r="H11" t="n">
-        <v>22.09252109618844</v>
+        <v>196.3935804494338</v>
       </c>
       <c r="I11" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K11" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
-        <v>344.908559541287</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5065,28 +5065,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S11" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="T11" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="U11" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="V11" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="W11" t="n">
-        <v>825.6800813726992</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="X11" t="n">
-        <v>546.7341079359765</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="Y11" t="n">
-        <v>301.0384945329112</v>
+        <v>754.2855273228791</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>419.9160846422163</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C12" t="n">
-        <v>419.9160846422163</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D12" t="n">
-        <v>419.9160846422163</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E12" t="n">
-        <v>419.9160846422163</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F12" t="n">
-        <v>273.3815266691013</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7267908976475</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I12" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J12" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K12" t="n">
-        <v>165.799003153448</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L12" t="n">
-        <v>165.799003153448</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M12" t="n">
-        <v>439.1939517187799</v>
+        <v>641.2451212288494</v>
       </c>
       <c r="N12" t="n">
-        <v>562.3310704112777</v>
+        <v>641.2451212288494</v>
       </c>
       <c r="O12" t="n">
-        <v>828.8278839945615</v>
+        <v>907.7419348121332</v>
       </c>
       <c r="P12" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q12" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T12" t="n">
-        <v>806.3008579684609</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U12" t="n">
-        <v>806.3008579684609</v>
+        <v>927.0937850266196</v>
       </c>
       <c r="V12" t="n">
-        <v>627.7675848477492</v>
+        <v>691.9416767948768</v>
       </c>
       <c r="W12" t="n">
-        <v>627.7675848477492</v>
+        <v>437.7043200666752</v>
       </c>
       <c r="X12" t="n">
-        <v>419.9160846422163</v>
+        <v>229.8528198611423</v>
       </c>
       <c r="Y12" t="n">
-        <v>419.9160846422163</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>191.0287040240954</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E13" t="n">
-        <v>22.09252109618844</v>
+        <v>51.07962342074273</v>
       </c>
       <c r="F13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L13" t="n">
         <v>58.70189726492715</v>
@@ -5229,22 +5229,22 @@
         <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>191.0287040240954</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
-        <v>191.0287040240954</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V13" t="n">
-        <v>191.0287040240954</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W13" t="n">
-        <v>191.0287040240954</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X13" t="n">
-        <v>191.0287040240954</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.0287040240954</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>458.5034879835598</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="C14" t="n">
-        <v>458.5034879835598</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D14" t="n">
-        <v>179.5575145468371</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E14" t="n">
-        <v>179.5575145468371</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F14" t="n">
-        <v>179.5575145468371</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G14" t="n">
         <v>22.09252109618844</v>
@@ -5278,16 +5278,16 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J14" t="n">
-        <v>22.09252109618846</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K14" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L14" t="n">
         <v>344.9085595412869</v>
       </c>
       <c r="M14" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N14" t="n">
         <v>817.0829279823542</v>
@@ -5302,28 +5302,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R14" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S14" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T14" t="n">
-        <v>737.4494614202825</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U14" t="n">
-        <v>737.4494614202825</v>
+        <v>850.7529338106226</v>
       </c>
       <c r="V14" t="n">
-        <v>737.4494614202825</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="W14" t="n">
-        <v>737.4494614202825</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="X14" t="n">
-        <v>737.4494614202825</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="Y14" t="n">
-        <v>737.4494614202825</v>
+        <v>301.0384945329112</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>155.5369507662314</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C15" t="n">
-        <v>155.5369507662314</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D15" t="n">
-        <v>155.5369507662314</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E15" t="n">
         <v>22.09252109618844</v>
@@ -5357,22 +5357,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J15" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K15" t="n">
-        <v>165.799003153448</v>
+        <v>45.18387750277333</v>
       </c>
       <c r="L15" t="n">
-        <v>165.799003153448</v>
+        <v>291.3393440954743</v>
       </c>
       <c r="M15" t="n">
-        <v>367.8501726635177</v>
+        <v>564.7342926608062</v>
       </c>
       <c r="N15" t="n">
-        <v>641.2451212288496</v>
+        <v>838.1292412261381</v>
       </c>
       <c r="O15" t="n">
-        <v>907.7419348121334</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P15" t="n">
         <v>1104.626054809422</v>
@@ -5381,28 +5381,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R15" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S15" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T15" t="n">
-        <v>806.3008579684609</v>
+        <v>920.1602891607292</v>
       </c>
       <c r="U15" t="n">
-        <v>806.3008579684609</v>
+        <v>691.9416767948769</v>
       </c>
       <c r="V15" t="n">
-        <v>571.1487497367182</v>
+        <v>691.9416767948769</v>
       </c>
       <c r="W15" t="n">
-        <v>571.1487497367182</v>
+        <v>437.7043200666752</v>
       </c>
       <c r="X15" t="n">
-        <v>363.2972495311853</v>
+        <v>229.8528198611424</v>
       </c>
       <c r="Y15" t="n">
-        <v>155.5369507662314</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="16">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C16" t="n">
-        <v>30.05653407522894</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D16" t="n">
         <v>22.09252109618844</v>
@@ -5469,19 +5469,19 @@
         <v>198.9927170031359</v>
       </c>
       <c r="U16" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V16" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W16" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X16" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>508.1578098032605</v>
+        <v>458.5034879835598</v>
       </c>
       <c r="C17" t="n">
-        <v>508.1578098032605</v>
+        <v>458.5034879835598</v>
       </c>
       <c r="D17" t="n">
-        <v>508.1578098032605</v>
+        <v>458.5034879835598</v>
       </c>
       <c r="E17" t="n">
-        <v>229.2118363665377</v>
+        <v>458.5034879835598</v>
       </c>
       <c r="F17" t="n">
-        <v>229.2118363665377</v>
+        <v>458.5034879835598</v>
       </c>
       <c r="G17" t="n">
         <v>229.2118363665377</v>
@@ -5515,22 +5515,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J17" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K17" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L17" t="n">
         <v>344.9085595412869</v>
       </c>
       <c r="M17" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N17" t="n">
         <v>817.0829279823542</v>
       </c>
       <c r="O17" t="n">
-        <v>989.7620250901065</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P17" t="n">
         <v>1099.465256491931</v>
@@ -5539,28 +5539,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R17" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S17" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T17" t="n">
-        <v>879.8992409003627</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="U17" t="n">
-        <v>787.1037832399832</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="V17" t="n">
-        <v>787.1037832399832</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="W17" t="n">
-        <v>508.1578098032605</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="X17" t="n">
-        <v>508.1578098032605</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="Y17" t="n">
-        <v>508.1578098032605</v>
+        <v>458.5034879835598</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>319.9847118730978</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C18" t="n">
-        <v>319.9847118730978</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D18" t="n">
-        <v>319.9847118730978</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E18" t="n">
-        <v>160.7472568676423</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F18" t="n">
-        <v>160.7472568676423</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G18" t="n">
         <v>22.09252109618844</v>
@@ -5597,49 +5597,49 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K18" t="n">
-        <v>45.1838775027733</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L18" t="n">
-        <v>291.3393440954743</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="M18" t="n">
-        <v>564.7342926608062</v>
+        <v>288.9361218459458</v>
       </c>
       <c r="N18" t="n">
-        <v>838.1292412261381</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O18" t="n">
-        <v>1104.626054809422</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P18" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q18" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R18" t="n">
-        <v>1104.626054809422</v>
+        <v>1046.74034101913</v>
       </c>
       <c r="S18" t="n">
-        <v>1104.626054809422</v>
+        <v>874.7363282703087</v>
       </c>
       <c r="T18" t="n">
-        <v>1104.626054809422</v>
+        <v>672.856428298418</v>
       </c>
       <c r="U18" t="n">
-        <v>1104.626054809422</v>
+        <v>672.856428298418</v>
       </c>
       <c r="V18" t="n">
-        <v>869.4739465776793</v>
+        <v>437.7043200666752</v>
       </c>
       <c r="W18" t="n">
-        <v>615.2365898494777</v>
+        <v>437.7043200666752</v>
       </c>
       <c r="X18" t="n">
-        <v>407.3850896439449</v>
+        <v>229.8528198611424</v>
       </c>
       <c r="Y18" t="n">
-        <v>319.9847118730978</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="19">
@@ -5658,10 +5658,10 @@
         <v>198.9927170031359</v>
       </c>
       <c r="E19" t="n">
-        <v>198.9927170031359</v>
+        <v>51.07962342074273</v>
       </c>
       <c r="F19" t="n">
-        <v>52.1027695052255</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G19" t="n">
         <v>22.09252109618844</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1104.626054809422</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="C20" t="n">
-        <v>825.6800813726992</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="D20" t="n">
-        <v>825.6800813726992</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="E20" t="n">
-        <v>825.6800813726992</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="F20" t="n">
-        <v>546.7341079359765</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="G20" t="n">
-        <v>267.7881344992537</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="H20" t="n">
         <v>22.09252109618844</v>
@@ -5752,10 +5752,10 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J20" t="n">
-        <v>22.09252109618845</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K20" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L20" t="n">
         <v>344.9085595412869</v>
@@ -5782,22 +5782,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T20" t="n">
-        <v>1104.626054809422</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="U20" t="n">
-        <v>1104.626054809422</v>
+        <v>626.0261199015633</v>
       </c>
       <c r="V20" t="n">
-        <v>1104.626054809422</v>
+        <v>626.0261199015633</v>
       </c>
       <c r="W20" t="n">
-        <v>1104.626054809422</v>
+        <v>626.0261199015633</v>
       </c>
       <c r="X20" t="n">
-        <v>1104.626054809422</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="Y20" t="n">
-        <v>1104.626054809422</v>
+        <v>579.9844679696339</v>
       </c>
     </row>
     <row r="21">
@@ -5831,19 +5831,19 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J21" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K21" t="n">
-        <v>159.4923828364511</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L21" t="n">
-        <v>405.6478494291521</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M21" t="n">
-        <v>679.0427979944841</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="N21" t="n">
-        <v>907.7419348121334</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O21" t="n">
         <v>907.7419348121334</v>
@@ -5861,13 +5861,13 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T21" t="n">
-        <v>927.0937850266196</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="U21" t="n">
-        <v>927.0937850266196</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="V21" t="n">
-        <v>691.9416767948769</v>
+        <v>667.5940466057884</v>
       </c>
       <c r="W21" t="n">
         <v>437.7043200666752</v>
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1103.588324956934</v>
+        <v>1358.776774348522</v>
       </c>
       <c r="C23" t="n">
-        <v>1103.588324956934</v>
+        <v>1358.776774348522</v>
       </c>
       <c r="D23" t="n">
-        <v>745.3226263501831</v>
+        <v>1358.776774348522</v>
       </c>
       <c r="E23" t="n">
-        <v>745.3226263501831</v>
+        <v>1358.776774348522</v>
       </c>
       <c r="F23" t="n">
-        <v>459.0204465554949</v>
+        <v>968.4104933630471</v>
       </c>
       <c r="G23" t="n">
-        <v>40.46784683920976</v>
+        <v>549.8578936467619</v>
       </c>
       <c r="H23" t="n">
-        <v>40.46784683920976</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="I23" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="J23" t="n">
-        <v>107.257212533911</v>
+        <v>107.2572125339111</v>
       </c>
       <c r="K23" t="n">
         <v>328.101962600968</v>
       </c>
       <c r="L23" t="n">
-        <v>654.3560310300139</v>
+        <v>654.3560310300138</v>
       </c>
       <c r="M23" t="n">
         <v>1033.983090059323</v>
@@ -6004,7 +6004,7 @@
         <v>1405.120914245785</v>
       </c>
       <c r="O23" t="n">
-        <v>1710.38819956477</v>
+        <v>1710.388199564769</v>
       </c>
       <c r="P23" t="n">
         <v>1933.252382068733</v>
@@ -6013,28 +6013,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R23" t="n">
-        <v>1931.377971238402</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S23" t="n">
-        <v>1931.377971238402</v>
+        <v>1833.797765359876</v>
       </c>
       <c r="T23" t="n">
-        <v>1710.165868918114</v>
+        <v>1612.585663039588</v>
       </c>
       <c r="U23" t="n">
-        <v>1456.356980227048</v>
+        <v>1358.776774348522</v>
       </c>
       <c r="V23" t="n">
-        <v>1456.356980227048</v>
+        <v>1358.776774348522</v>
       </c>
       <c r="W23" t="n">
-        <v>1103.588324956934</v>
+        <v>1358.776774348522</v>
       </c>
       <c r="X23" t="n">
-        <v>1103.588324956934</v>
+        <v>1358.776774348522</v>
       </c>
       <c r="Y23" t="n">
-        <v>1103.588324956934</v>
+        <v>1358.776774348522</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>595.9818591744399</v>
+        <v>361.4554340934518</v>
       </c>
       <c r="C24" t="n">
-        <v>421.5288298933129</v>
+        <v>187.0024048123248</v>
       </c>
       <c r="D24" t="n">
-        <v>272.5944202320617</v>
+        <v>187.0024048123248</v>
       </c>
       <c r="E24" t="n">
-        <v>113.3569652266061</v>
+        <v>187.0024048123248</v>
       </c>
       <c r="F24" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="G24" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="H24" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="I24" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="J24" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="K24" t="n">
-        <v>245.8568488424076</v>
+        <v>122.5224875632328</v>
       </c>
       <c r="L24" t="n">
-        <v>583.4321048996659</v>
+        <v>460.097743620491</v>
       </c>
       <c r="M24" t="n">
-        <v>906.0113666834374</v>
+        <v>906.0113666834375</v>
       </c>
       <c r="N24" t="n">
         <v>1379.434009878921</v>
@@ -6095,25 +6095,25 @@
         <v>2023.392341960488</v>
       </c>
       <c r="S24" t="n">
-        <v>2023.392341960488</v>
+        <v>1863.010729853816</v>
       </c>
       <c r="T24" t="n">
-        <v>1823.243996922344</v>
+        <v>1662.862384815672</v>
       </c>
       <c r="U24" t="n">
-        <v>1595.053647150622</v>
+        <v>1434.672035043951</v>
       </c>
       <c r="V24" t="n">
-        <v>1359.90153891888</v>
+        <v>1199.519926812208</v>
       </c>
       <c r="W24" t="n">
-        <v>1105.664182190678</v>
+        <v>945.2825700840065</v>
       </c>
       <c r="X24" t="n">
-        <v>897.8126819851452</v>
+        <v>737.4310698784736</v>
       </c>
       <c r="Y24" t="n">
-        <v>690.0523832201914</v>
+        <v>529.6707711135198</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="C25" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="D25" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="E25" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="F25" t="n">
-        <v>61.70323072609952</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="G25" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="H25" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="I25" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="J25" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="K25" t="n">
-        <v>66.69569932712993</v>
+        <v>66.69569932712992</v>
       </c>
       <c r="L25" t="n">
         <v>155.7847551810659</v>
@@ -6162,37 +6162,37 @@
         <v>367.3809329804118</v>
       </c>
       <c r="O25" t="n">
-        <v>450.4505890207823</v>
+        <v>450.4505890207822</v>
       </c>
       <c r="P25" t="n">
-        <v>498.0103482609705</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="Q25" t="n">
-        <v>498.0103482609705</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="R25" t="n">
-        <v>498.0103482609705</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="S25" t="n">
-        <v>498.0103482609705</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="T25" t="n">
-        <v>498.0103482609705</v>
+        <v>269.5736838865072</v>
       </c>
       <c r="U25" t="n">
-        <v>498.0103482609705</v>
+        <v>269.5736838865072</v>
       </c>
       <c r="V25" t="n">
-        <v>498.0103482609705</v>
+        <v>269.5736838865072</v>
       </c>
       <c r="W25" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="X25" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920975</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>837.2420042270616</v>
+        <v>1449.411584370085</v>
       </c>
       <c r="C26" t="n">
-        <v>837.2420042270616</v>
+        <v>1449.411584370085</v>
       </c>
       <c r="D26" t="n">
-        <v>837.2420042270616</v>
+        <v>1449.411584370085</v>
       </c>
       <c r="E26" t="n">
-        <v>451.4537516288173</v>
+        <v>1063.623331771841</v>
       </c>
       <c r="F26" t="n">
-        <v>40.46784683920976</v>
+        <v>652.6374269822334</v>
       </c>
       <c r="G26" t="n">
-        <v>40.46784683920976</v>
+        <v>234.0848272659482</v>
       </c>
       <c r="H26" t="n">
         <v>40.46784683920976</v>
@@ -6226,52 +6226,52 @@
         <v>40.46784683920976</v>
       </c>
       <c r="J26" t="n">
-        <v>107.257212533911</v>
+        <v>107.2572125339111</v>
       </c>
       <c r="K26" t="n">
         <v>328.101962600968</v>
       </c>
       <c r="L26" t="n">
-        <v>654.356031030014</v>
+        <v>654.3560310300138</v>
       </c>
       <c r="M26" t="n">
-        <v>1033.983090059324</v>
+        <v>1033.983090059323</v>
       </c>
       <c r="N26" t="n">
         <v>1405.120914245785</v>
       </c>
       <c r="O26" t="n">
-        <v>1710.38819956477</v>
+        <v>1710.388199564769</v>
       </c>
       <c r="P26" t="n">
-        <v>1933.252382068734</v>
+        <v>1933.252382068733</v>
       </c>
       <c r="Q26" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R26" t="n">
-        <v>1931.377971238403</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S26" t="n">
-        <v>1931.377971238403</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="T26" t="n">
-        <v>1710.165868918114</v>
+        <v>1802.180239640199</v>
       </c>
       <c r="U26" t="n">
-        <v>1710.165868918114</v>
+        <v>1802.180239640199</v>
       </c>
       <c r="V26" t="n">
-        <v>1379.102981574543</v>
+        <v>1802.180239640199</v>
       </c>
       <c r="W26" t="n">
-        <v>1227.381336202873</v>
+        <v>1449.411584370085</v>
       </c>
       <c r="X26" t="n">
-        <v>1227.381336202873</v>
+        <v>1449.411584370085</v>
       </c>
       <c r="Y26" t="n">
-        <v>837.2420042270616</v>
+        <v>1449.411584370085</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>612.0498625890982</v>
+        <v>633.3994138196973</v>
       </c>
       <c r="C27" t="n">
-        <v>437.5968333079712</v>
+        <v>633.3994138196973</v>
       </c>
       <c r="D27" t="n">
-        <v>288.66242364672</v>
+        <v>484.465004158446</v>
       </c>
       <c r="E27" t="n">
-        <v>251.5821095672719</v>
+        <v>325.2275491529905</v>
       </c>
       <c r="F27" t="n">
-        <v>251.5821095672719</v>
+        <v>178.6929911798755</v>
       </c>
       <c r="G27" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H27" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I27" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J27" t="n">
-        <v>86.55375581100979</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K27" t="n">
-        <v>86.55375581100979</v>
+        <v>245.8568488424076</v>
       </c>
       <c r="L27" t="n">
-        <v>327.4379791865878</v>
+        <v>583.4321048996658</v>
       </c>
       <c r="M27" t="n">
-        <v>773.3516022495343</v>
+        <v>1029.345727962612</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.774245445018</v>
+        <v>1502.768371158096</v>
       </c>
       <c r="O27" t="n">
-        <v>1613.447795097059</v>
+        <v>1869.441920810137</v>
       </c>
       <c r="P27" t="n">
-        <v>1890.732577526585</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Q27" t="n">
         <v>2023.392341960488</v>
@@ -6338,19 +6338,19 @@
         <v>1659.219456583117</v>
       </c>
       <c r="U27" t="n">
-        <v>1431.029106811396</v>
+        <v>1431.029106811395</v>
       </c>
       <c r="V27" t="n">
-        <v>1195.876998579653</v>
+        <v>1431.029106811395</v>
       </c>
       <c r="W27" t="n">
-        <v>1195.876998579653</v>
+        <v>1217.226549810252</v>
       </c>
       <c r="X27" t="n">
-        <v>988.0254983741202</v>
+        <v>1009.375049604719</v>
       </c>
       <c r="Y27" t="n">
-        <v>780.2651996091663</v>
+        <v>801.6147508397653</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>498.0103482609705</v>
+        <v>208.5931782240098</v>
       </c>
       <c r="C28" t="n">
-        <v>498.0103482609705</v>
+        <v>208.5931782240098</v>
       </c>
       <c r="D28" t="n">
-        <v>347.8937088486348</v>
+        <v>208.5931782240098</v>
       </c>
       <c r="E28" t="n">
-        <v>199.9806152662417</v>
+        <v>208.5931782240098</v>
       </c>
       <c r="F28" t="n">
-        <v>53.09066776833131</v>
+        <v>208.5931782240098</v>
       </c>
       <c r="G28" t="n">
         <v>40.46784683920976</v>
@@ -6387,7 +6387,7 @@
         <v>40.46784683920976</v>
       </c>
       <c r="K28" t="n">
-        <v>66.69569932712994</v>
+        <v>66.69569932712992</v>
       </c>
       <c r="L28" t="n">
         <v>155.7847551810659</v>
@@ -6399,37 +6399,37 @@
         <v>367.3809329804118</v>
       </c>
       <c r="O28" t="n">
-        <v>450.4505890207823</v>
+        <v>450.4505890207822</v>
       </c>
       <c r="P28" t="n">
-        <v>498.0103482609705</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="Q28" t="n">
-        <v>498.0103482609705</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="R28" t="n">
-        <v>498.0103482609705</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="S28" t="n">
-        <v>498.0103482609705</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="T28" t="n">
-        <v>498.0103482609705</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="U28" t="n">
-        <v>498.0103482609705</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="V28" t="n">
-        <v>498.0103482609705</v>
+        <v>498.0103482609704</v>
       </c>
       <c r="W28" t="n">
-        <v>498.0103482609705</v>
+        <v>208.5931782240098</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0103482609705</v>
+        <v>208.5931782240098</v>
       </c>
       <c r="Y28" t="n">
-        <v>498.0103482609705</v>
+        <v>208.5931782240098</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>817.2861451622455</v>
+        <v>1246.653169920554</v>
       </c>
       <c r="C29" t="n">
-        <v>817.2861451622455</v>
+        <v>1246.653169920554</v>
       </c>
       <c r="D29" t="n">
-        <v>459.0204465554949</v>
+        <v>1246.653169920554</v>
       </c>
       <c r="E29" t="n">
-        <v>459.0204465554949</v>
+        <v>860.86491732231</v>
       </c>
       <c r="F29" t="n">
-        <v>459.0204465554949</v>
+        <v>449.8790125327025</v>
       </c>
       <c r="G29" t="n">
         <v>40.46784683920976</v>
@@ -6490,25 +6490,25 @@
         <v>2023.392341960488</v>
       </c>
       <c r="S29" t="n">
-        <v>1833.797765359877</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="T29" t="n">
-        <v>1612.585663039588</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="U29" t="n">
-        <v>1358.776774348522</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="V29" t="n">
-        <v>1358.776774348522</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="W29" t="n">
-        <v>1358.776774348522</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.776774348522</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Y29" t="n">
-        <v>1203.885985226367</v>
+        <v>1633.253009984676</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>499.6805784341176</v>
+        <v>357.8125058608965</v>
       </c>
       <c r="C30" t="n">
-        <v>325.2275491529905</v>
+        <v>183.3594765797694</v>
       </c>
       <c r="D30" t="n">
-        <v>325.2275491529905</v>
+        <v>183.3594765797694</v>
       </c>
       <c r="E30" t="n">
-        <v>325.2275491529905</v>
+        <v>183.3594765797694</v>
       </c>
       <c r="F30" t="n">
-        <v>178.6929911798755</v>
+        <v>183.3594765797694</v>
       </c>
       <c r="G30" t="n">
-        <v>40.46784683920976</v>
+        <v>113.3569652266061</v>
       </c>
       <c r="H30" t="n">
-        <v>40.46784683920976</v>
+        <v>113.3569652266061</v>
       </c>
       <c r="I30" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J30" t="n">
-        <v>40.46784683920976</v>
+        <v>86.55375581100978</v>
       </c>
       <c r="K30" t="n">
-        <v>122.5224875632326</v>
+        <v>291.9427578142076</v>
       </c>
       <c r="L30" t="n">
-        <v>460.0977436204909</v>
+        <v>629.5180138714659</v>
       </c>
       <c r="M30" t="n">
-        <v>906.0113666834374</v>
+        <v>1075.431636934412</v>
       </c>
       <c r="N30" t="n">
-        <v>1379.434009878921</v>
+        <v>1524.059027874543</v>
       </c>
       <c r="O30" t="n">
-        <v>1746.107559530962</v>
+        <v>1890.732577526584</v>
       </c>
       <c r="P30" t="n">
-        <v>2023.392341960488</v>
+        <v>1890.732577526584</v>
       </c>
       <c r="Q30" t="n">
         <v>2023.392341960488</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>187.3577943371201</v>
+        <v>269.5736838865073</v>
       </c>
       <c r="C31" t="n">
-        <v>187.3577943371201</v>
+        <v>269.5736838865073</v>
       </c>
       <c r="D31" t="n">
-        <v>187.3577943371201</v>
+        <v>269.5736838865073</v>
       </c>
       <c r="E31" t="n">
-        <v>187.3577943371201</v>
+        <v>200.5644120622488</v>
       </c>
       <c r="F31" t="n">
-        <v>40.46784683920976</v>
+        <v>200.5644120622488</v>
       </c>
       <c r="G31" t="n">
-        <v>40.46784683920976</v>
+        <v>200.5644120622488</v>
       </c>
       <c r="H31" t="n">
         <v>40.46784683920976</v>
@@ -6651,22 +6651,22 @@
         <v>498.0103482609705</v>
       </c>
       <c r="T31" t="n">
-        <v>498.0103482609705</v>
+        <v>269.5736838865073</v>
       </c>
       <c r="U31" t="n">
-        <v>498.0103482609705</v>
+        <v>269.5736838865073</v>
       </c>
       <c r="V31" t="n">
-        <v>243.3258600550836</v>
+        <v>269.5736838865073</v>
       </c>
       <c r="W31" t="n">
-        <v>187.3577943371201</v>
+        <v>269.5736838865073</v>
       </c>
       <c r="X31" t="n">
-        <v>187.3577943371201</v>
+        <v>269.5736838865073</v>
       </c>
       <c r="Y31" t="n">
-        <v>187.3577943371201</v>
+        <v>269.5736838865073</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>837.2420042270616</v>
+        <v>712.2861523946569</v>
       </c>
       <c r="C32" t="n">
-        <v>837.2420042270616</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="D32" t="n">
-        <v>837.2420042270616</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="E32" t="n">
-        <v>451.4537516288173</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="F32" t="n">
-        <v>40.46784683920976</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="G32" t="n">
         <v>40.46784683920976</v>
@@ -6736,16 +6736,16 @@
         <v>1769.583453269422</v>
       </c>
       <c r="V32" t="n">
-        <v>1613.981176266995</v>
+        <v>1438.520565925851</v>
       </c>
       <c r="W32" t="n">
-        <v>1613.981176266995</v>
+        <v>1085.751910655737</v>
       </c>
       <c r="X32" t="n">
-        <v>1613.981176266995</v>
+        <v>712.2861523946569</v>
       </c>
       <c r="Y32" t="n">
-        <v>1223.841844291183</v>
+        <v>712.2861523946569</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>840.2924728100278</v>
+        <v>374.1583311257923</v>
       </c>
       <c r="C33" t="n">
-        <v>665.8394435289008</v>
+        <v>199.7053018446653</v>
       </c>
       <c r="D33" t="n">
-        <v>665.8394435289008</v>
+        <v>199.7053018446653</v>
       </c>
       <c r="E33" t="n">
-        <v>506.6019885234452</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F33" t="n">
-        <v>360.0674305503302</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G33" t="n">
-        <v>221.8422862096645</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H33" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I33" t="n">
         <v>40.46784683920976</v>
@@ -6782,19 +6782,19 @@
         <v>40.46784683920976</v>
       </c>
       <c r="K33" t="n">
-        <v>245.8568488424076</v>
+        <v>122.5224875632326</v>
       </c>
       <c r="L33" t="n">
-        <v>583.4321048996659</v>
+        <v>460.0977436204909</v>
       </c>
       <c r="M33" t="n">
-        <v>1029.345727962612</v>
+        <v>906.0113666834374</v>
       </c>
       <c r="N33" t="n">
-        <v>1502.768371158096</v>
+        <v>1379.434009878921</v>
       </c>
       <c r="O33" t="n">
-        <v>1869.441920810137</v>
+        <v>1746.107559530962</v>
       </c>
       <c r="P33" t="n">
         <v>2023.392341960488</v>
@@ -6815,16 +6815,16 @@
         <v>1361.256162110028</v>
       </c>
       <c r="V33" t="n">
-        <v>1361.256162110028</v>
+        <v>1126.104053878285</v>
       </c>
       <c r="W33" t="n">
-        <v>1216.359310035629</v>
+        <v>957.9854671163471</v>
       </c>
       <c r="X33" t="n">
-        <v>1008.507809830096</v>
+        <v>750.1339669108143</v>
       </c>
       <c r="Y33" t="n">
-        <v>1008.507809830096</v>
+        <v>542.3736681458604</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.3809404216029</v>
+        <v>209.7317587492542</v>
       </c>
       <c r="C34" t="n">
-        <v>188.3809404216029</v>
+        <v>209.7317587492542</v>
       </c>
       <c r="D34" t="n">
-        <v>188.3809404216029</v>
+        <v>209.7317587492542</v>
       </c>
       <c r="E34" t="n">
-        <v>40.46784683920976</v>
+        <v>209.7317587492542</v>
       </c>
       <c r="F34" t="n">
-        <v>40.46784683920976</v>
+        <v>209.7317587492542</v>
       </c>
       <c r="G34" t="n">
         <v>40.46784683920976</v>
@@ -6885,25 +6885,25 @@
         <v>498.0103482609705</v>
       </c>
       <c r="S34" t="n">
-        <v>279.1191793524194</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="T34" t="n">
-        <v>279.1191793524194</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="U34" t="n">
-        <v>188.3809404216029</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="V34" t="n">
-        <v>188.3809404216029</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="W34" t="n">
-        <v>188.3809404216029</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="X34" t="n">
-        <v>188.3809404216029</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.3809404216029</v>
+        <v>391.3802235794939</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>325.6863123305356</v>
+        <v>1320.026536942302</v>
       </c>
       <c r="C35" t="n">
-        <v>325.6863123305356</v>
+        <v>1320.026536942302</v>
       </c>
       <c r="D35" t="n">
-        <v>40.46784683920976</v>
+        <v>1255.794603943347</v>
       </c>
       <c r="E35" t="n">
-        <v>40.46784683920976</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="F35" t="n">
-        <v>40.46784683920976</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="G35" t="n">
         <v>40.46784683920976</v>
@@ -6937,10 +6937,10 @@
         <v>40.46784683920976</v>
       </c>
       <c r="J35" t="n">
-        <v>107.2572125339111</v>
+        <v>107.257212533911</v>
       </c>
       <c r="K35" t="n">
-        <v>328.1019626009684</v>
+        <v>328.101962600968</v>
       </c>
       <c r="L35" t="n">
         <v>654.356031030014</v>
@@ -6961,28 +6961,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R35" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="S35" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="T35" t="n">
-        <v>2023.392341960488</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="U35" t="n">
-        <v>1769.583453269422</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="V35" t="n">
-        <v>1438.520565925851</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="W35" t="n">
-        <v>1085.751910655737</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="X35" t="n">
-        <v>712.2861523946574</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="Y35" t="n">
-        <v>712.2861523946574</v>
+        <v>1320.026536942302</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>363.855285781588</v>
+        <v>357.8125058608967</v>
       </c>
       <c r="C36" t="n">
-        <v>189.402256500461</v>
+        <v>183.3594765797697</v>
       </c>
       <c r="D36" t="n">
-        <v>40.46784683920976</v>
+        <v>183.3594765797697</v>
       </c>
       <c r="E36" t="n">
         <v>40.46784683920976</v>
@@ -7019,22 +7019,22 @@
         <v>40.46784683920976</v>
       </c>
       <c r="K36" t="n">
-        <v>40.46784683920976</v>
+        <v>245.8568488424076</v>
       </c>
       <c r="L36" t="n">
-        <v>327.4379791865878</v>
+        <v>583.4321048996659</v>
       </c>
       <c r="M36" t="n">
-        <v>773.3516022495343</v>
+        <v>1029.345727962612</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.774245445018</v>
+        <v>1379.434009878921</v>
       </c>
       <c r="O36" t="n">
-        <v>1613.447795097059</v>
+        <v>1746.107559530963</v>
       </c>
       <c r="P36" t="n">
-        <v>1890.732577526585</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Q36" t="n">
         <v>2023.392341960488</v>
@@ -7049,19 +7049,19 @@
         <v>1659.219456583117</v>
       </c>
       <c r="U36" t="n">
-        <v>1437.071886732087</v>
+        <v>1431.029106811396</v>
       </c>
       <c r="V36" t="n">
-        <v>1201.919778500344</v>
+        <v>1195.876998579653</v>
       </c>
       <c r="W36" t="n">
-        <v>947.6824217721428</v>
+        <v>941.6396418514514</v>
       </c>
       <c r="X36" t="n">
-        <v>739.83092156661</v>
+        <v>733.7881416459186</v>
       </c>
       <c r="Y36" t="n">
-        <v>532.0706228016561</v>
+        <v>526.0278428809647</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>359.5206691794524</v>
+        <v>279.1191793524194</v>
       </c>
       <c r="C37" t="n">
-        <v>190.5844862515455</v>
+        <v>279.1191793524194</v>
       </c>
       <c r="D37" t="n">
-        <v>40.46784683920976</v>
+        <v>279.1191793524194</v>
       </c>
       <c r="E37" t="n">
-        <v>40.46784683920976</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="F37" t="n">
-        <v>40.46784683920976</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="G37" t="n">
-        <v>40.46784683920976</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="H37" t="n">
-        <v>40.46784683920976</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="I37" t="n">
         <v>40.46784683920976</v>
@@ -7122,25 +7122,25 @@
         <v>498.0103482609705</v>
       </c>
       <c r="S37" t="n">
-        <v>498.0103482609705</v>
+        <v>279.1191793524194</v>
       </c>
       <c r="T37" t="n">
-        <v>498.0103482609705</v>
+        <v>279.1191793524194</v>
       </c>
       <c r="U37" t="n">
-        <v>498.0103482609705</v>
+        <v>279.1191793524194</v>
       </c>
       <c r="V37" t="n">
-        <v>498.0103482609705</v>
+        <v>279.1191793524194</v>
       </c>
       <c r="W37" t="n">
-        <v>498.0103482609705</v>
+        <v>279.1191793524194</v>
       </c>
       <c r="X37" t="n">
-        <v>359.5206691794524</v>
+        <v>279.1191793524194</v>
       </c>
       <c r="Y37" t="n">
-        <v>359.5206691794524</v>
+        <v>279.1191793524194</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>870.0063513451025</v>
+        <v>853.7544631376168</v>
       </c>
       <c r="C38" t="n">
-        <v>870.0063513451025</v>
+        <v>484.791946197205</v>
       </c>
       <c r="D38" t="n">
-        <v>870.0063513451025</v>
+        <v>126.5262475904545</v>
       </c>
       <c r="E38" t="n">
-        <v>870.0063513451025</v>
+        <v>126.5262475904545</v>
       </c>
       <c r="F38" t="n">
-        <v>459.0204465554949</v>
+        <v>126.5262475904545</v>
       </c>
       <c r="G38" t="n">
-        <v>40.46784683920976</v>
+        <v>126.5262475904545</v>
       </c>
       <c r="H38" t="n">
-        <v>40.46784683920976</v>
+        <v>126.5262475904545</v>
       </c>
       <c r="I38" t="n">
         <v>40.46784683920976</v>
@@ -7204,22 +7204,22 @@
         <v>1833.797765359877</v>
       </c>
       <c r="T38" t="n">
-        <v>1612.585663039588</v>
+        <v>1833.797765359877</v>
       </c>
       <c r="U38" t="n">
-        <v>1358.776774348522</v>
+        <v>1579.988876668811</v>
       </c>
       <c r="V38" t="n">
-        <v>1358.776774348522</v>
+        <v>1579.988876668811</v>
       </c>
       <c r="W38" t="n">
-        <v>1358.776774348522</v>
+        <v>1227.220221398697</v>
       </c>
       <c r="X38" t="n">
-        <v>985.3110160874423</v>
+        <v>853.7544631376168</v>
       </c>
       <c r="Y38" t="n">
-        <v>870.0063513451025</v>
+        <v>853.7544631376168</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>521.8370462001235</v>
+        <v>664.0151969445508</v>
       </c>
       <c r="C39" t="n">
-        <v>521.8370462001235</v>
+        <v>489.5621676634238</v>
       </c>
       <c r="D39" t="n">
-        <v>372.9026365388722</v>
+        <v>340.6277580021725</v>
       </c>
       <c r="E39" t="n">
-        <v>213.6651815334167</v>
+        <v>181.390302996717</v>
       </c>
       <c r="F39" t="n">
-        <v>213.6651815334167</v>
+        <v>178.6929911798755</v>
       </c>
       <c r="G39" t="n">
-        <v>213.6651815334167</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H39" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I39" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J39" t="n">
-        <v>40.46784683920976</v>
+        <v>86.55375581100979</v>
       </c>
       <c r="K39" t="n">
-        <v>40.46784683920976</v>
+        <v>291.9427578142076</v>
       </c>
       <c r="L39" t="n">
-        <v>378.043102896468</v>
+        <v>629.5180138714659</v>
       </c>
       <c r="M39" t="n">
-        <v>823.9567259594146</v>
+        <v>1075.431636934412</v>
       </c>
       <c r="N39" t="n">
-        <v>1297.379369154898</v>
+        <v>1246.774245445018</v>
       </c>
       <c r="O39" t="n">
-        <v>1664.052918806939</v>
+        <v>1613.447795097059</v>
       </c>
       <c r="P39" t="n">
-        <v>1941.337701236465</v>
+        <v>1890.732577526585</v>
       </c>
       <c r="Q39" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R39" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="S39" t="n">
-        <v>2023.392341960488</v>
+        <v>1789.594856919893</v>
       </c>
       <c r="T39" t="n">
-        <v>1823.243996922344</v>
+        <v>1589.446511881749</v>
       </c>
       <c r="U39" t="n">
-        <v>1595.053647150623</v>
+        <v>1361.256162110028</v>
       </c>
       <c r="V39" t="n">
-        <v>1359.90153891888</v>
+        <v>1126.104053878285</v>
       </c>
       <c r="W39" t="n">
-        <v>1105.664182190678</v>
+        <v>871.8666971500836</v>
       </c>
       <c r="X39" t="n">
-        <v>897.8126819851454</v>
+        <v>664.0151969445508</v>
       </c>
       <c r="Y39" t="n">
-        <v>690.0523832201916</v>
+        <v>664.0151969445508</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>40.46784683920976</v>
+        <v>331.6292628096609</v>
       </c>
       <c r="C40" t="n">
-        <v>40.46784683920976</v>
+        <v>331.6292628096609</v>
       </c>
       <c r="D40" t="n">
-        <v>40.46784683920976</v>
+        <v>331.6292628096609</v>
       </c>
       <c r="E40" t="n">
-        <v>40.46784683920976</v>
+        <v>331.6292628096609</v>
       </c>
       <c r="F40" t="n">
-        <v>40.46784683920976</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="G40" t="n">
-        <v>40.46784683920976</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="H40" t="n">
-        <v>40.46784683920976</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="I40" t="n">
         <v>40.46784683920976</v>
@@ -7362,22 +7362,22 @@
         <v>498.0103482609705</v>
       </c>
       <c r="T40" t="n">
-        <v>498.0103482609705</v>
+        <v>331.6292628096609</v>
       </c>
       <c r="U40" t="n">
-        <v>498.0103482609705</v>
+        <v>331.6292628096609</v>
       </c>
       <c r="V40" t="n">
-        <v>498.0103482609705</v>
+        <v>331.6292628096609</v>
       </c>
       <c r="W40" t="n">
-        <v>208.5931782240099</v>
+        <v>331.6292628096609</v>
       </c>
       <c r="X40" t="n">
-        <v>208.5931782240099</v>
+        <v>331.6292628096609</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.5931782240099</v>
+        <v>331.6292628096609</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>635.1858112773382</v>
+        <v>874.0806703636379</v>
       </c>
       <c r="C41" t="n">
-        <v>635.1858112773382</v>
+        <v>505.1181534232261</v>
       </c>
       <c r="D41" t="n">
-        <v>635.1858112773382</v>
+        <v>505.1181534232261</v>
       </c>
       <c r="E41" t="n">
-        <v>635.1858112773382</v>
+        <v>505.1181534232261</v>
       </c>
       <c r="F41" t="n">
-        <v>635.1858112773382</v>
+        <v>94.13224863361859</v>
       </c>
       <c r="G41" t="n">
-        <v>216.6332115610531</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H41" t="n">
-        <v>216.6332115610531</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I41" t="n">
         <v>40.46784683920976</v>
@@ -7438,25 +7438,25 @@
         <v>1931.377971238403</v>
       </c>
       <c r="S41" t="n">
-        <v>1794.038344902378</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="T41" t="n">
-        <v>1572.826242582089</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="U41" t="n">
-        <v>1319.017353891023</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="V41" t="n">
-        <v>987.9544665474523</v>
+        <v>1600.315083894832</v>
       </c>
       <c r="W41" t="n">
-        <v>635.1858112773382</v>
+        <v>1247.546428624718</v>
       </c>
       <c r="X41" t="n">
-        <v>635.1858112773382</v>
+        <v>874.0806703636379</v>
       </c>
       <c r="Y41" t="n">
-        <v>635.1858112773382</v>
+        <v>874.0806703636379</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>592.9646140926393</v>
+        <v>842.6923244981639</v>
       </c>
       <c r="C42" t="n">
-        <v>418.5115848115123</v>
+        <v>668.2392952170369</v>
       </c>
       <c r="D42" t="n">
-        <v>269.577175150261</v>
+        <v>519.3048855557856</v>
       </c>
       <c r="E42" t="n">
-        <v>269.577175150261</v>
+        <v>360.0674305503302</v>
       </c>
       <c r="F42" t="n">
-        <v>178.6929911798755</v>
+        <v>360.0674305503302</v>
       </c>
       <c r="G42" t="n">
-        <v>40.46784683920976</v>
+        <v>221.8422862096645</v>
       </c>
       <c r="H42" t="n">
-        <v>40.46784683920976</v>
+        <v>113.3569652266061</v>
       </c>
       <c r="I42" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J42" t="n">
-        <v>86.55375581100979</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K42" t="n">
-        <v>291.9427578142076</v>
+        <v>245.8568488424076</v>
       </c>
       <c r="L42" t="n">
-        <v>629.5180138714659</v>
+        <v>583.4321048996659</v>
       </c>
       <c r="M42" t="n">
-        <v>1075.431636934412</v>
+        <v>1029.345727962612</v>
       </c>
       <c r="N42" t="n">
-        <v>1548.854280129896</v>
+        <v>1379.434009878921</v>
       </c>
       <c r="O42" t="n">
-        <v>1915.527829781937</v>
+        <v>1746.107559530963</v>
       </c>
       <c r="P42" t="n">
-        <v>1915.527829781937</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Q42" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R42" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="S42" t="n">
-        <v>1859.367801621261</v>
+        <v>1789.594856919893</v>
       </c>
       <c r="T42" t="n">
-        <v>1659.219456583117</v>
+        <v>1789.594856919893</v>
       </c>
       <c r="U42" t="n">
-        <v>1431.029106811396</v>
+        <v>1747.693588428595</v>
       </c>
       <c r="V42" t="n">
-        <v>1431.029106811396</v>
+        <v>1512.541480196852</v>
       </c>
       <c r="W42" t="n">
-        <v>1176.791750083194</v>
+        <v>1258.304123468651</v>
       </c>
       <c r="X42" t="n">
-        <v>968.9402498776612</v>
+        <v>1050.452623263118</v>
       </c>
       <c r="Y42" t="n">
-        <v>761.1799511127074</v>
+        <v>842.6923244981639</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>88.37233253271344</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="C43" t="n">
-        <v>88.37233253271344</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="D43" t="n">
-        <v>88.37233253271344</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="E43" t="n">
-        <v>88.37233253271344</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F43" t="n">
-        <v>88.37233253271344</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G43" t="n">
-        <v>88.37233253271344</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H43" t="n">
         <v>40.46784683920976</v>
@@ -7593,28 +7593,28 @@
         <v>498.0103482609705</v>
       </c>
       <c r="R43" t="n">
-        <v>498.0103482609705</v>
+        <v>337.9882695781349</v>
       </c>
       <c r="S43" t="n">
-        <v>498.0103482609705</v>
+        <v>261.2604259827399</v>
       </c>
       <c r="T43" t="n">
-        <v>498.0103482609705</v>
+        <v>261.2604259827399</v>
       </c>
       <c r="U43" t="n">
-        <v>498.0103482609705</v>
+        <v>261.2604259827399</v>
       </c>
       <c r="V43" t="n">
-        <v>498.0103482609705</v>
+        <v>261.2604259827399</v>
       </c>
       <c r="W43" t="n">
-        <v>498.0103482609705</v>
+        <v>261.2604259827399</v>
       </c>
       <c r="X43" t="n">
-        <v>270.0207973629531</v>
+        <v>261.2604259827399</v>
       </c>
       <c r="Y43" t="n">
-        <v>270.0207973629531</v>
+        <v>40.46784683920976</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1206.204521167473</v>
+        <v>1624.757120883758</v>
       </c>
       <c r="C44" t="n">
-        <v>837.2420042270616</v>
+        <v>1255.794603943347</v>
       </c>
       <c r="D44" t="n">
-        <v>837.2420042270616</v>
+        <v>1255.794603943347</v>
       </c>
       <c r="E44" t="n">
-        <v>451.4537516288173</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="F44" t="n">
-        <v>40.46784683920976</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="G44" t="n">
         <v>40.46784683920976</v>
@@ -7678,22 +7678,22 @@
         <v>2023.392341960488</v>
       </c>
       <c r="T44" t="n">
-        <v>2023.392341960488</v>
+        <v>2014.89645285957</v>
       </c>
       <c r="U44" t="n">
-        <v>2023.392341960488</v>
+        <v>2014.89645285957</v>
       </c>
       <c r="V44" t="n">
-        <v>2023.392341960488</v>
+        <v>2014.89645285957</v>
       </c>
       <c r="W44" t="n">
-        <v>1969.809611404365</v>
+        <v>2014.89645285957</v>
       </c>
       <c r="X44" t="n">
-        <v>1596.343853143285</v>
+        <v>2014.89645285957</v>
       </c>
       <c r="Y44" t="n">
-        <v>1206.204521167473</v>
+        <v>1624.757120883758</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>840.2924728100278</v>
+        <v>941.6396418514512</v>
       </c>
       <c r="C45" t="n">
-        <v>665.8394435289008</v>
+        <v>814.7738531901521</v>
       </c>
       <c r="D45" t="n">
         <v>665.8394435289008</v>
@@ -7736,7 +7736,7 @@
         <v>629.5180138714659</v>
       </c>
       <c r="M45" t="n">
-        <v>773.3516022495343</v>
+        <v>1075.431636934412</v>
       </c>
       <c r="N45" t="n">
         <v>1246.774245445018</v>
@@ -7757,22 +7757,22 @@
         <v>1859.367801621261</v>
       </c>
       <c r="T45" t="n">
-        <v>1745.293736740459</v>
+        <v>1659.219456583117</v>
       </c>
       <c r="U45" t="n">
-        <v>1745.293736740459</v>
+        <v>1431.029106811395</v>
       </c>
       <c r="V45" t="n">
-        <v>1510.141628508716</v>
+        <v>1195.876998579653</v>
       </c>
       <c r="W45" t="n">
-        <v>1255.904271780515</v>
+        <v>941.6396418514512</v>
       </c>
       <c r="X45" t="n">
-        <v>1048.052771574982</v>
+        <v>941.6396418514512</v>
       </c>
       <c r="Y45" t="n">
-        <v>840.2924728100278</v>
+        <v>941.6396418514512</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>279.1191793524194</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="C46" t="n">
-        <v>279.1191793524194</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="D46" t="n">
-        <v>279.1191793524194</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="E46" t="n">
-        <v>279.1191793524194</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F46" t="n">
-        <v>209.7317587492542</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G46" t="n">
         <v>40.46784683920976</v>
@@ -7833,25 +7833,25 @@
         <v>498.0103482609705</v>
       </c>
       <c r="S46" t="n">
-        <v>279.1191793524194</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="T46" t="n">
-        <v>279.1191793524194</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="U46" t="n">
-        <v>279.1191793524194</v>
+        <v>295.1523350450966</v>
       </c>
       <c r="V46" t="n">
-        <v>279.1191793524194</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="W46" t="n">
-        <v>279.1191793524194</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="X46" t="n">
-        <v>279.1191793524194</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="Y46" t="n">
-        <v>279.1191793524194</v>
+        <v>40.46784683920976</v>
       </c>
     </row>
   </sheetData>
@@ -8066,13 +8066,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
-        <v>242.4075215744184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>229.6373335557741</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8549,7 +8549,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>399.2039605324505</v>
+        <v>361.0244890520115</v>
       </c>
       <c r="N12" t="n">
-        <v>236.1308877972191</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>149.002100311894</v>
       </c>
       <c r="L15" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>327.1395372443068</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N15" t="n">
         <v>387.9064735273546</v>
@@ -9023,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q15" t="n">
         <v>130.3661252938572</v>
@@ -9245,13 +9245,13 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K18" t="n">
-        <v>149.0021003118939</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M18" t="n">
-        <v>399.2039605324505</v>
+        <v>392.5864374864155</v>
       </c>
       <c r="N18" t="n">
         <v>387.9064735273546</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,13 +9488,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>399.2039605324505</v>
+        <v>354.6541654994895</v>
       </c>
       <c r="N21" t="n">
-        <v>342.7591889337359</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O21" t="n">
-        <v>124.6736186875539</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>79.53961213657041</v>
+        <v>79.53961213657044</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>139.8850741043213</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>341.1249008417424</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>76.0775256814014</v>
+        <v>76.07752568140143</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>79.53961213657044</v>
       </c>
       <c r="K27" t="n">
-        <v>57.00159862551008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>273.1726355239841</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>193.8826057316802</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>76.07752568140143</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>79.53961213657041</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>139.885074104321</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,16 +10202,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>454.2966649947124</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>38.37712982223464</v>
       </c>
       <c r="Q30" t="n">
-        <v>76.0775256814014</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>79.53961213657041</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>139.885074104321</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10445,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>193.8826057316797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>76.0775256814014</v>
@@ -10667,16 +10667,16 @@
         <v>79.53961213657041</v>
       </c>
       <c r="K36" t="n">
-        <v>57.00159862551008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>319.7240587278226</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>354.7622114352965</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>76.0775256814014</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>79.53961213657041</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>57.00159862551008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>174.21102617701</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.9610011602126</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>79.53961213657041</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,16 +11150,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>354.7622114352965</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>38.37712982223464</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>185.0315783870082</v>
+        <v>76.0775256814014</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11384,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>160.5737155834564</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>174.21102617701</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22549,19 +22549,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22591,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22719,7 +22719,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -22746,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>155.8535025062293</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22792,16 +22792,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>287.0492336280195</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>323.8216709537613</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22880,7 +22880,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>82.43643527161383</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22913,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>141.8841621389553</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22992,7 +22992,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23023,19 +23023,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y8" t="n">
-        <v>303.77674101696</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,7 +23150,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>106.5525690386006</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23162,13 +23162,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23184,7 +23184,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23269,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G11" t="n">
         <v>139.005434824964</v>
@@ -23278,7 +23278,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176458</v>
+        <v>32.49007335793289</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>222.4795457699687</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>73.08445501505753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>142.999281387019</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23348,13 +23348,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
         <v>86.80307722268739</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>50.17947915721973</v>
       </c>
       <c r="V12" t="n">
-        <v>56.05264675992061</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>116.7238167216225</v>
       </c>
       <c r="G13" t="n">
         <v>167.9278262653587</v>
@@ -23469,7 +23469,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T13" t="n">
-        <v>219.7913806357857</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U13" t="n">
         <v>286.3155846423218</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D14" t="n">
-        <v>78.52652791832747</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>259.2716050111774</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H14" t="n">
         <v>338.0329468943008</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S14" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>59.6914772875561</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23582,7 +23582,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>25.5350950820584</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S15" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>17.23999297996608</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>140.7311001689623</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23709,7 +23709,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23740,13 +23740,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.1619485273195</v>
+        <v>188.1632134264676</v>
       </c>
       <c r="H17" t="n">
         <v>338.0329468943008</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>205.8118405263978</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>159.4668867050356</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>73.08445501505753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="18">
@@ -23819,13 +23819,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H18" t="n">
         <v>111.5079271034444</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>95.48084390037957</v>
+        <v>38.17398724799059</v>
       </c>
       <c r="S18" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9364262421938</v>
@@ -23873,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>119.1563217841658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>116.7238167216225</v>
       </c>
       <c r="G19" t="n">
-        <v>138.217680340412</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H19" t="n">
         <v>161.6656840978772</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>139.005434824964</v>
       </c>
       <c r="H20" t="n">
-        <v>94.79428962526623</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I20" t="n">
         <v>205.0481221176458</v>
@@ -24022,10 +24022,10 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>324.1498652658589</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24101,7 +24101,7 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T21" t="n">
-        <v>24.10415388719753</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9364262421938</v>
@@ -24110,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>24.10415388719753</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24211,22 +24211,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>123.4368877449701</v>
+        <v>20.41342756609157</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>91.0942270148646</v>
       </c>
       <c r="S23" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24284,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>73.40336484457343</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>136.8428928972591</v>
@@ -24305,7 +24305,7 @@
         <v>107.4004677732277</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>69.07521525435415</v>
+        <v>69.07521525435416</v>
       </c>
       <c r="S24" t="n">
-        <v>162.3842949358346</v>
+        <v>3.606498950229962</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>146.5482427429232</v>
+        <v>167.571272790944</v>
       </c>
       <c r="H25" t="n">
         <v>158.4955995708086</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>51.01734149371097</v>
+        <v>51.01734149371098</v>
       </c>
       <c r="R25" t="n">
         <v>158.4218578960072</v>
@@ -24417,7 +24417,7 @@
         <v>216.7022572194656</v>
       </c>
       <c r="T25" t="n">
-        <v>226.1522977307185</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2961362709901</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>59.70821965976657</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>329.8924352648517</v>
+        <v>138.2116246423807</v>
       </c>
       <c r="I26" t="n">
         <v>174.4037110746249</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>91.0942270148646</v>
       </c>
       <c r="S26" t="n">
         <v>187.6986308346051</v>
@@ -24502,16 +24502,16 @@
         <v>251.2707998041555</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>199.0365397994596</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24524,16 +24524,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>120.9355695167474</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24542,7 +24542,7 @@
         <v>107.4004677732277</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>69.07521525435415</v>
+        <v>69.07521525435416</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24581,10 +24581,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>40.03045172978761</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>155.0746800711137</v>
+        <v>1.127194719991962</v>
       </c>
       <c r="H28" t="n">
         <v>158.4955995708086</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>51.01734149371097</v>
+        <v>51.01734149371098</v>
       </c>
       <c r="R28" t="n">
         <v>158.4218578960072</v>
@@ -24654,7 +24654,7 @@
         <v>216.7022572194656</v>
       </c>
       <c r="T28" t="n">
-        <v>226.1522977307185</v>
+        <v>226.1522977307186</v>
       </c>
       <c r="U28" t="n">
         <v>286.2961362709901</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,16 +24685,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>9.050019682564539</v>
       </c>
       <c r="H29" t="n">
         <v>329.8924352648517</v>
@@ -24730,13 +24730,13 @@
         <v>91.09422701486459</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>232.8960574251204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>140.4493918474889</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24770,16 +24770,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>67.54040665762744</v>
       </c>
       <c r="H30" t="n">
         <v>107.4004677732277</v>
       </c>
       <c r="I30" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>78.11478354055325</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.571272790944</v>
       </c>
       <c r="H31" t="n">
-        <v>158.4955995708086</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>142.8287537878153</v>
@@ -24891,16 +24891,16 @@
         <v>216.7022572194656</v>
       </c>
       <c r="T31" t="n">
-        <v>226.1522977307185</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2961362709901</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>231.1146132758071</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>114.5398429902372</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>329.8924352648517</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>173.7060042377327</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25007,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25055,16 +25055,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>108.2470996072646</v>
+        <v>85.2575822666011</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.571272790944</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>158.4955995708086</v>
@@ -25125,13 +25125,13 @@
         <v>158.4218578960072</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>216.7022572194656</v>
       </c>
       <c r="T34" t="n">
         <v>226.1522977307185</v>
       </c>
       <c r="U34" t="n">
-        <v>196.4652797294817</v>
+        <v>286.2961362709901</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>113.020829917433</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>72.3167607842704</v>
+        <v>291.093427951717</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>329.8924352648517</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>91.09422701486459</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>187.6986308346051</v>
       </c>
       <c r="T35" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25238,10 +25238,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>16.18236701224663</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>5.982352121484553</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>52.99789724630696</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>158.4955995708086</v>
       </c>
       <c r="I37" t="n">
-        <v>142.8287537878153</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>63.68592579338139</v>
@@ -25362,7 +25362,7 @@
         <v>158.4218578960072</v>
       </c>
       <c r="S37" t="n">
-        <v>216.7022572194656</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>226.1522977307185</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>88.60487309833425</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H38" t="n">
         <v>329.8924352648517</v>
       </c>
       <c r="I38" t="n">
-        <v>174.4037110746249</v>
+        <v>89.20589433089252</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>272.0863205611372</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>142.3988736947108</v>
       </c>
       <c r="G39" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>8.095333629485253</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13.38790211098518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.571272790944</v>
@@ -25569,7 +25569,7 @@
         <v>158.4955995708086</v>
       </c>
       <c r="I40" t="n">
-        <v>142.8287537878153</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>63.68592579338139</v>
@@ -25602,7 +25602,7 @@
         <v>216.7022572194656</v>
       </c>
       <c r="T40" t="n">
-        <v>226.1522977307185</v>
+        <v>61.43502313392204</v>
       </c>
       <c r="U40" t="n">
         <v>286.2961362709901</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,16 +25639,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>361.2393159426575</v>
       </c>
       <c r="H41" t="n">
         <v>329.8924352648517</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.73240076194054</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25715,19 +25715,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>55.09387026270223</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>184.4261904676189</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25803,7 +25803,7 @@
         <v>167.571272790944</v>
       </c>
       <c r="H43" t="n">
-        <v>111.07015873424</v>
+        <v>158.4955995708086</v>
       </c>
       <c r="I43" t="n">
         <v>142.8287537878153</v>
@@ -25833,10 +25833,10 @@
         <v>51.01734149371097</v>
       </c>
       <c r="R43" t="n">
-        <v>158.4218578960072</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>216.7022572194656</v>
+        <v>140.7416920600245</v>
       </c>
       <c r="T43" t="n">
         <v>226.1522977307185</v>
@@ -25851,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>329.8924352648517</v>
@@ -25918,7 +25918,7 @@
         <v>187.6986308346051</v>
       </c>
       <c r="T44" t="n">
-        <v>218.9999812970856</v>
+        <v>210.5890510871772</v>
       </c>
       <c r="U44" t="n">
         <v>251.2707998041555</v>
@@ -25927,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>296.1940654668513</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25946,10 +25946,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>47.11136821362962</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25997,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>85.21353735576851</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9084462740043</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>76.72750162579773</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.571272790944</v>
       </c>
       <c r="H46" t="n">
         <v>158.4955995708086</v>
@@ -26073,16 +26073,16 @@
         <v>158.4218578960072</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>216.7022572194656</v>
       </c>
       <c r="T46" t="n">
         <v>226.1522977307185</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2961362709901</v>
+        <v>85.46670318727496</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>440385.3271531028</v>
+        <v>440385.327153103</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>469065.4218355754</v>
+        <v>469065.4218355753</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>469065.4218355753</v>
+        <v>469065.4218355754</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>469065.4218355753</v>
+        <v>469065.4218355754</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>637294.4739790908</v>
+        <v>637294.4739790906</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>637294.4739790907</v>
+        <v>637294.4739790908</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>637294.4739790905</v>
+        <v>637294.4739790906</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>637294.4739790907</v>
+        <v>637294.4739790906</v>
       </c>
     </row>
   </sheetData>
@@ -26322,13 +26322,13 @@
         <v>149544.6052781992</v>
       </c>
       <c r="E2" t="n">
-        <v>159463.6497950859</v>
+        <v>159463.6497950858</v>
       </c>
       <c r="F2" t="n">
         <v>159463.6497950859</v>
       </c>
       <c r="G2" t="n">
-        <v>159463.6497950858</v>
+        <v>159463.6497950859</v>
       </c>
       <c r="H2" t="n">
         <v>159463.6497950858</v>
@@ -26337,7 +26337,7 @@
         <v>217603.8698204563</v>
       </c>
       <c r="J2" t="n">
-        <v>217603.8698204563</v>
+        <v>217603.8698204564</v>
       </c>
       <c r="K2" t="n">
         <v>217603.8698204563</v>
@@ -26349,7 +26349,7 @@
         <v>217603.8698204563</v>
       </c>
       <c r="N2" t="n">
-        <v>217603.8698204564</v>
+        <v>217603.8698204563</v>
       </c>
       <c r="O2" t="n">
         <v>217603.8698204563</v>
@@ -26389,7 +26389,7 @@
         <v>209917.1901890307</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910625</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213656</v>
+        <v>8757.582995213648</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26444,7 +26444,7 @@
         <v>9044.250773184249</v>
       </c>
       <c r="K4" t="n">
-        <v>9044.250773184249</v>
+        <v>9044.250773184247</v>
       </c>
       <c r="L4" t="n">
         <v>9044.250773184249</v>
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="F5" t="n">
         <v>17553.77951678015</v>
@@ -26490,7 +26490,7 @@
         <v>17553.77951678015</v>
       </c>
       <c r="I5" t="n">
-        <v>35829.43444762749</v>
+        <v>35829.43444762748</v>
       </c>
       <c r="J5" t="n">
         <v>35829.43444762749</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-271.2167064931</v>
+        <v>10724.99285154335</v>
       </c>
       <c r="C6" t="n">
-        <v>80498.21482505463</v>
+        <v>91494.42438309103</v>
       </c>
       <c r="D6" t="n">
-        <v>80498.21482505463</v>
+        <v>91494.42438309106</v>
       </c>
       <c r="E6" t="n">
-        <v>83014.843378962</v>
+        <v>93515.10071115408</v>
       </c>
       <c r="F6" t="n">
-        <v>121643.7245081977</v>
+        <v>132143.9818403898</v>
       </c>
       <c r="G6" t="n">
-        <v>121643.7245081976</v>
+        <v>132143.9818403898</v>
       </c>
       <c r="H6" t="n">
-        <v>121643.7245081976</v>
+        <v>132143.9818403897</v>
       </c>
       <c r="I6" t="n">
-        <v>-45623.94595707898</v>
+        <v>-38030.69962615539</v>
       </c>
       <c r="J6" t="n">
-        <v>101233.3016328455</v>
+        <v>108826.5479637691</v>
       </c>
       <c r="K6" t="n">
-        <v>164293.2442319517</v>
+        <v>171886.4905628753</v>
       </c>
       <c r="L6" t="n">
-        <v>164293.2442319517</v>
+        <v>171886.4905628753</v>
       </c>
       <c r="M6" t="n">
-        <v>155535.6612367381</v>
+        <v>163128.9075676616</v>
       </c>
       <c r="N6" t="n">
-        <v>164293.2442319518</v>
+        <v>171886.4905628753</v>
       </c>
       <c r="O6" t="n">
-        <v>164293.2442319517</v>
+        <v>171886.4905628753</v>
       </c>
       <c r="P6" t="n">
-        <v>164293.2442319517</v>
+        <v>171886.4905628753</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="G3" t="n">
         <v>35.02126071912534</v>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F4" t="n">
         <v>276.1565137023555</v>
@@ -26813,7 +26813,7 @@
         <v>505.8480854901219</v>
       </c>
       <c r="J4" t="n">
-        <v>505.848085490122</v>
+        <v>505.8480854901219</v>
       </c>
       <c r="K4" t="n">
         <v>505.8480854901219</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>197.725108539043</v>
+        <v>197.7251085390429</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>35.1422248246964</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>229.6915717877664</v>
+      </c>
+      <c r="J4" t="n">
+        <v>241.0142888776592</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>35.14222482469643</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>229.6915717877665</v>
-      </c>
-      <c r="J4" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>35.14222482469646</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.1422248246964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I14" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -32007,28 +32007,28 @@
         <v>22.21755819470702</v>
       </c>
       <c r="M14" t="n">
-        <v>24.72131435677233</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N14" t="n">
         <v>25.12133106840334</v>
       </c>
       <c r="O14" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P14" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q14" t="n">
         <v>15.20362680796963</v>
       </c>
       <c r="R14" t="n">
-        <v>8.84383625587038</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S14" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T14" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U14" t="n">
         <v>0.01126311902524633</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I15" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J15" t="n">
-        <v>7.116914878779991</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K15" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L15" t="n">
         <v>16.35591992358773</v>
       </c>
       <c r="M15" t="n">
-        <v>19.08658709192331</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N15" t="n">
         <v>19.59175225833409</v>
@@ -32098,10 +32098,10 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.615648792164377</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R15" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S15" t="n">
         <v>1.399198482504676</v>
@@ -32110,7 +32110,7 @@
         <v>0.3036277226497752</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,37 +32147,37 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I16" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J16" t="n">
-        <v>4.464923682174389</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K16" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L16" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M16" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N16" t="n">
-        <v>9.664145601394052</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O16" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P16" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.288210368587926</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R16" t="n">
         <v>2.839592713390063</v>
@@ -32186,10 +32186,10 @@
         <v>1.100586177025627</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9356637960127363</v>
+        <v>0.9356637960127361</v>
       </c>
       <c r="H23" t="n">
-        <v>9.582366850915438</v>
+        <v>9.582366850915436</v>
       </c>
       <c r="I23" t="n">
         <v>36.07217849578105</v>
       </c>
       <c r="J23" t="n">
-        <v>79.41329510683605</v>
+        <v>79.41329510683603</v>
       </c>
       <c r="K23" t="n">
         <v>119.0199435920552</v>
@@ -32718,31 +32718,31 @@
         <v>147.65476448928</v>
       </c>
       <c r="M23" t="n">
-        <v>164.2943755216215</v>
+        <v>164.2943755216214</v>
       </c>
       <c r="N23" t="n">
         <v>166.9528302820427</v>
       </c>
       <c r="O23" t="n">
-        <v>157.6488234104411</v>
+        <v>157.648823410441</v>
       </c>
       <c r="P23" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q23" t="n">
-        <v>101.0411637516705</v>
+        <v>101.0411637516704</v>
       </c>
       <c r="R23" t="n">
-        <v>58.7748909262851</v>
+        <v>58.77489092628508</v>
       </c>
       <c r="S23" t="n">
-        <v>21.32143875164025</v>
+        <v>21.32143875164024</v>
       </c>
       <c r="T23" t="n">
-        <v>4.095868267045756</v>
+        <v>4.095868267045754</v>
       </c>
       <c r="U23" t="n">
-        <v>0.07485310368101888</v>
+        <v>0.07485310368101887</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5006242659515319</v>
+        <v>0.5006242659515318</v>
       </c>
       <c r="H24" t="n">
-        <v>4.834976463268743</v>
+        <v>4.834976463268742</v>
       </c>
       <c r="I24" t="n">
-        <v>17.23640564789266</v>
+        <v>17.23640564789265</v>
       </c>
       <c r="J24" t="n">
-        <v>47.29801453009627</v>
+        <v>47.29801453009626</v>
       </c>
       <c r="K24" t="n">
-        <v>80.83984034884891</v>
+        <v>80.83984034884888</v>
       </c>
       <c r="L24" t="n">
         <v>108.6991416049587</v>
@@ -32806,22 +32806,22 @@
         <v>119.1112480485647</v>
       </c>
       <c r="P24" t="n">
-        <v>95.59727759209561</v>
+        <v>95.59727759209558</v>
       </c>
       <c r="Q24" t="n">
-        <v>63.90424840462011</v>
+        <v>63.9042484046201</v>
       </c>
       <c r="R24" t="n">
-        <v>31.08261889828898</v>
+        <v>31.08261889828897</v>
       </c>
       <c r="S24" t="n">
-        <v>9.298876168003229</v>
+        <v>9.298876168003227</v>
       </c>
       <c r="T24" t="n">
-        <v>2.017867107059025</v>
+        <v>2.017867107059024</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03293580697049553</v>
+        <v>0.03293580697049552</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4197065675147297</v>
+        <v>0.4197065675147296</v>
       </c>
       <c r="H25" t="n">
-        <v>3.731572936630963</v>
+        <v>3.731572936630962</v>
       </c>
       <c r="I25" t="n">
-        <v>12.62172113944297</v>
+        <v>12.62172113944296</v>
       </c>
       <c r="J25" t="n">
-        <v>29.67325432329139</v>
+        <v>29.67325432329138</v>
       </c>
       <c r="K25" t="n">
-        <v>48.76227211671132</v>
+        <v>48.7622721167113</v>
       </c>
       <c r="L25" t="n">
-        <v>62.39892004668992</v>
+        <v>62.3989200466899</v>
       </c>
       <c r="M25" t="n">
-        <v>65.79091221505894</v>
+        <v>65.79091221505892</v>
       </c>
       <c r="N25" t="n">
-        <v>64.22655137250409</v>
+        <v>64.22655137250408</v>
       </c>
       <c r="O25" t="n">
-        <v>59.323615561082</v>
+        <v>59.32361556108199</v>
       </c>
       <c r="P25" t="n">
-        <v>50.76160158378147</v>
+        <v>50.76160158378146</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.14470175798342</v>
+        <v>35.14470175798341</v>
       </c>
       <c r="R25" t="n">
-        <v>18.8715334811623</v>
+        <v>18.87153348116229</v>
       </c>
       <c r="S25" t="n">
-        <v>7.314340817506697</v>
+        <v>7.314340817506695</v>
       </c>
       <c r="T25" t="n">
-        <v>1.793291697562936</v>
+        <v>1.793291697562935</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02289308550080347</v>
+        <v>0.02289308550080346</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9356637960127363</v>
+        <v>0.9356637960127361</v>
       </c>
       <c r="H26" t="n">
-        <v>9.582366850915438</v>
+        <v>9.582366850915436</v>
       </c>
       <c r="I26" t="n">
         <v>36.07217849578105</v>
       </c>
       <c r="J26" t="n">
-        <v>79.41329510683605</v>
+        <v>79.41329510683603</v>
       </c>
       <c r="K26" t="n">
         <v>119.0199435920552</v>
@@ -32955,31 +32955,31 @@
         <v>147.65476448928</v>
       </c>
       <c r="M26" t="n">
-        <v>164.2943755216215</v>
+        <v>164.2943755216214</v>
       </c>
       <c r="N26" t="n">
         <v>166.9528302820427</v>
       </c>
       <c r="O26" t="n">
-        <v>157.6488234104411</v>
+        <v>157.648823410441</v>
       </c>
       <c r="P26" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.0411637516705</v>
+        <v>101.0411637516704</v>
       </c>
       <c r="R26" t="n">
-        <v>58.7748909262851</v>
+        <v>58.77489092628508</v>
       </c>
       <c r="S26" t="n">
-        <v>21.32143875164025</v>
+        <v>21.32143875164024</v>
       </c>
       <c r="T26" t="n">
-        <v>4.095868267045756</v>
+        <v>4.095868267045754</v>
       </c>
       <c r="U26" t="n">
-        <v>0.07485310368101888</v>
+        <v>0.07485310368101887</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5006242659515319</v>
+        <v>0.5006242659515318</v>
       </c>
       <c r="H27" t="n">
-        <v>4.834976463268743</v>
+        <v>4.834976463268742</v>
       </c>
       <c r="I27" t="n">
-        <v>17.23640564789266</v>
+        <v>17.23640564789265</v>
       </c>
       <c r="J27" t="n">
-        <v>47.29801453009627</v>
+        <v>47.29801453009626</v>
       </c>
       <c r="K27" t="n">
-        <v>80.83984034884891</v>
+        <v>80.83984034884888</v>
       </c>
       <c r="L27" t="n">
         <v>108.6991416049587</v>
@@ -33043,22 +33043,22 @@
         <v>119.1112480485647</v>
       </c>
       <c r="P27" t="n">
-        <v>95.59727759209561</v>
+        <v>95.59727759209558</v>
       </c>
       <c r="Q27" t="n">
-        <v>63.90424840462011</v>
+        <v>63.9042484046201</v>
       </c>
       <c r="R27" t="n">
-        <v>31.08261889828898</v>
+        <v>31.08261889828897</v>
       </c>
       <c r="S27" t="n">
-        <v>9.298876168003229</v>
+        <v>9.298876168003227</v>
       </c>
       <c r="T27" t="n">
-        <v>2.017867107059025</v>
+        <v>2.017867107059024</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03293580697049553</v>
+        <v>0.03293580697049552</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4197065675147297</v>
+        <v>0.4197065675147296</v>
       </c>
       <c r="H28" t="n">
-        <v>3.731572936630963</v>
+        <v>3.731572936630962</v>
       </c>
       <c r="I28" t="n">
-        <v>12.62172113944297</v>
+        <v>12.62172113944296</v>
       </c>
       <c r="J28" t="n">
-        <v>29.67325432329139</v>
+        <v>29.67325432329138</v>
       </c>
       <c r="K28" t="n">
-        <v>48.76227211671132</v>
+        <v>48.7622721167113</v>
       </c>
       <c r="L28" t="n">
-        <v>62.39892004668992</v>
+        <v>62.3989200466899</v>
       </c>
       <c r="M28" t="n">
-        <v>65.79091221505894</v>
+        <v>65.79091221505892</v>
       </c>
       <c r="N28" t="n">
-        <v>64.22655137250409</v>
+        <v>64.22655137250408</v>
       </c>
       <c r="O28" t="n">
-        <v>59.323615561082</v>
+        <v>59.32361556108199</v>
       </c>
       <c r="P28" t="n">
-        <v>50.76160158378147</v>
+        <v>50.76160158378146</v>
       </c>
       <c r="Q28" t="n">
-        <v>35.14470175798342</v>
+        <v>35.14470175798341</v>
       </c>
       <c r="R28" t="n">
-        <v>18.8715334811623</v>
+        <v>18.87153348116229</v>
       </c>
       <c r="S28" t="n">
-        <v>7.314340817506697</v>
+        <v>7.314340817506695</v>
       </c>
       <c r="T28" t="n">
-        <v>1.793291697562936</v>
+        <v>1.793291697562935</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02289308550080347</v>
+        <v>0.02289308550080346</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34786,13 +34786,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>91.0829537758999</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35269,7 +35269,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>138.7877391315785</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>276.1565137023555</v>
+        <v>237.9770422219165</v>
       </c>
       <c r="N12" t="n">
-        <v>124.3809279722199</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>269.1887005891756</v>
@@ -35509,7 +35509,7 @@
         <v>198.8728484821096</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.370323552522134</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>138.7877391315785</v>
+        <v>23.32460243089383</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M15" t="n">
-        <v>204.0920904142118</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N15" t="n">
         <v>276.1565137023555</v>
@@ -35743,7 +35743,7 @@
         <v>269.1887005891756</v>
       </c>
       <c r="P15" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35816,13 +35816,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N16" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O16" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P16" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>23.3246024308938</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>248.6418854471727</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>276.1565137023555</v>
+        <v>269.5389906563205</v>
       </c>
       <c r="N18" t="n">
         <v>276.1565137023555</v>
@@ -35980,10 +35980,10 @@
         <v>269.1887005891756</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K21" t="n">
         <v>138.7877391315785</v>
@@ -36208,13 +36208,13 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M21" t="n">
-        <v>276.1565137023555</v>
+        <v>231.6067186693945</v>
       </c>
       <c r="N21" t="n">
-        <v>231.0092291087367</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P21" t="n">
         <v>198.8728484821096</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>67.46400575222353</v>
+        <v>67.46400575222351</v>
       </c>
       <c r="K23" t="n">
         <v>223.0755051182394</v>
@@ -36366,19 +36366,19 @@
         <v>329.5495640697432</v>
       </c>
       <c r="M23" t="n">
-        <v>383.4616757871813</v>
+        <v>383.4616757871812</v>
       </c>
       <c r="N23" t="n">
         <v>374.8866910974359</v>
       </c>
       <c r="O23" t="n">
-        <v>308.3507932514997</v>
+        <v>308.3507932514996</v>
       </c>
       <c r="P23" t="n">
         <v>225.1153358625897</v>
       </c>
       <c r="Q23" t="n">
-        <v>91.05046453712565</v>
+        <v>91.05046453712562</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>207.4636383870685</v>
+        <v>82.88347547881116</v>
       </c>
       <c r="L24" t="n">
         <v>340.9851071285437</v>
       </c>
       <c r="M24" t="n">
-        <v>325.8376381654257</v>
+        <v>450.4178010736833</v>
       </c>
       <c r="N24" t="n">
         <v>478.2046900964478</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>26.49278029082846</v>
+        <v>26.49278029082845</v>
       </c>
       <c r="L25" t="n">
         <v>89.98894530700605</v>
@@ -36533,7 +36533,7 @@
         <v>83.90874347512167</v>
       </c>
       <c r="P25" t="n">
-        <v>48.04016084867496</v>
+        <v>48.04016084867495</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>67.46400575222353</v>
+        <v>67.46400575222351</v>
       </c>
       <c r="K26" t="n">
         <v>223.0755051182394</v>
@@ -36603,19 +36603,19 @@
         <v>329.5495640697432</v>
       </c>
       <c r="M26" t="n">
-        <v>383.4616757871813</v>
+        <v>383.4616757871812</v>
       </c>
       <c r="N26" t="n">
         <v>374.8866910974359</v>
       </c>
       <c r="O26" t="n">
-        <v>308.3507932514997</v>
+        <v>308.3507932514996</v>
       </c>
       <c r="P26" t="n">
         <v>225.1153358625897</v>
       </c>
       <c r="Q26" t="n">
-        <v>91.05046453712565</v>
+        <v>91.05046453712562</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>46.55142320383842</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>207.4636383870685</v>
       </c>
       <c r="L27" t="n">
-        <v>243.3173973490686</v>
+        <v>340.9851071285437</v>
       </c>
       <c r="M27" t="n">
         <v>450.4178010736833</v>
@@ -36691,10 +36691,10 @@
         <v>370.3773228808498</v>
       </c>
       <c r="P27" t="n">
-        <v>280.0856388177025</v>
+        <v>155.5054759094455</v>
       </c>
       <c r="Q27" t="n">
-        <v>133.9997620544477</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>26.49278029082846</v>
+        <v>26.49278029082845</v>
       </c>
       <c r="L28" t="n">
         <v>89.98894530700605</v>
@@ -36770,7 +36770,7 @@
         <v>83.90874347512167</v>
       </c>
       <c r="P28" t="n">
-        <v>48.04016084867496</v>
+        <v>48.04016084867495</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>46.55142320383842</v>
       </c>
       <c r="K30" t="n">
-        <v>82.88347547881092</v>
+        <v>207.4636383870685</v>
       </c>
       <c r="L30" t="n">
         <v>340.9851071285437</v>
@@ -36922,16 +36922,16 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N30" t="n">
-        <v>478.2046900964478</v>
+        <v>453.1589807476067</v>
       </c>
       <c r="O30" t="n">
         <v>370.3773228808498</v>
       </c>
       <c r="P30" t="n">
-        <v>280.0856388177025</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>133.9997620544477</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>207.4636383870685</v>
+        <v>82.88347547881092</v>
       </c>
       <c r="L33" t="n">
         <v>340.9851071285437</v>
@@ -37165,7 +37165,7 @@
         <v>370.3773228808498</v>
       </c>
       <c r="P33" t="n">
-        <v>155.5054759094451</v>
+        <v>280.0856388177025</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>207.4636383870685</v>
       </c>
       <c r="L36" t="n">
-        <v>289.8688205529071</v>
+        <v>340.9851071285437</v>
       </c>
       <c r="M36" t="n">
         <v>450.4178010736833</v>
       </c>
       <c r="N36" t="n">
-        <v>478.2046900964478</v>
+        <v>353.6245271881908</v>
       </c>
       <c r="O36" t="n">
         <v>370.3773228808498</v>
@@ -37405,7 +37405,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q36" t="n">
-        <v>133.9997620544477</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>46.55142320383842</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>207.4636383870685</v>
       </c>
       <c r="L39" t="n">
         <v>340.9851071285437</v>
@@ -37633,7 +37633,7 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N39" t="n">
-        <v>478.2046900964478</v>
+        <v>173.0733419299043</v>
       </c>
       <c r="O39" t="n">
         <v>370.3773228808498</v>
@@ -37642,7 +37642,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.88347547881122</v>
+        <v>133.9997620544477</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>46.55142320383842</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>207.4636383870685</v>
@@ -37870,16 +37870,16 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N42" t="n">
-        <v>478.2046900964478</v>
+        <v>353.6245271881908</v>
       </c>
       <c r="O42" t="n">
         <v>370.3773228808498</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>280.0856388177025</v>
       </c>
       <c r="Q42" t="n">
-        <v>108.9540527056068</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,10 +38104,10 @@
         <v>340.9851071285437</v>
       </c>
       <c r="M45" t="n">
-        <v>145.2864529071398</v>
+        <v>450.4178010736833</v>
       </c>
       <c r="N45" t="n">
-        <v>478.2046900964478</v>
+        <v>173.0733419299043</v>
       </c>
       <c r="O45" t="n">
         <v>370.3773228808498</v>
